--- a/test/reference/from_dbc/test.xlsx
+++ b/test/reference/from_dbc/test.xlsx
@@ -10,14 +10,14 @@
     <sheet name="K-Matrix " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'K-Matrix '!$A$1:$S$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'K-Matrix '!$A$1:$X$7</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Signal Default</t>
   </si>
   <si>
-    <t xml:space="preserve"> Signal Not Available</t>
+    <t>Signal Not Available</t>
   </si>
   <si>
     <t>Byteorder</t>
@@ -73,13 +73,22 @@
     <t>Function / Increment Unit</t>
   </si>
   <si>
+    <t xml:space="preserve"> 12xh</t>
+  </si>
+  <si>
+    <t>extendedFrame</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>123h</t>
   </si>
   <si>
     <t>testFrame1</t>
   </si>
   <si>
-    <t>s</t>
+    <t>100</t>
   </si>
   <si>
     <t>r</t>
@@ -99,22 +108,22 @@
     <t>m</t>
   </si>
   <si>
+    <t>0..500</t>
+  </si>
+  <si>
     <t>5  specialCharUnit°$</t>
   </si>
   <si>
-    <t>0..500</t>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>someUnit</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>Signal</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>someUnit</t>
   </si>
   <si>
     <t>two</t>
@@ -494,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -505,22 +514,19 @@
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -586,158 +592,134 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2">
-        <v>100</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" outlineLevel="1">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="R3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" outlineLevel="1">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4">
-        <v>100</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
         <v>3</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>30</v>
+      <c r="K4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:18" outlineLevel="1">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4">
-        <v>100</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -748,39 +730,89 @@
         <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4">
         <v>3</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" outlineLevel="1">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="5">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S6"/>
+  <autoFilter ref="A1:X7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>